--- a/downloaded_files/CHES301_Tutorial-35829.xlsx
+++ b/downloaded_files/CHES301_Tutorial-35829.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -73,6 +73,15 @@
   </x:si>
   <x:si>
     <x:t>Fares Nabil mostafa ouf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عطا على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Atta Ali Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230267</x:t>
@@ -206,7 +215,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -506,7 +515,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -516,7 +525,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.890625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="36.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -755,7 +764,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4176706019</x:v>
+        <x:v>45936.5847732986</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149225694</x:v>
+        <x:v>45907.4176706019</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -804,6 +813,38 @@
       <x:c r="R8" s="2" t="s"/>
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45907.4149225694</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
